--- a/Webpage/www/PortfolioData.xlsx
+++ b/Webpage/www/PortfolioData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="2040" windowWidth="30300" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="9820" yWindow="0" windowWidth="28580" windowHeight="18800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>UC Santa Cruz</t>
   </si>
@@ -39,42 +39,75 @@
     <t>Determination of Mineral Oil Nuclei Properties Using Nuclear Magnetic Resonance</t>
   </si>
   <si>
+    <t>Industry Analysis and Product Conception for a Senior Health Care Tracker</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Python(numpy, matplotlib), Juypter notebook</t>
+  </si>
+  <si>
+    <t>Personal Webpage</t>
+  </si>
+  <si>
+    <t>Independent</t>
+  </si>
+  <si>
+    <t>R (shiny, readxl, DT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I created a web application for my portfolio and information using R Shiny. It is hosted with shinyapps.io. The source code is available on &lt;a href="https://github.com/a-kooi/Personal-Webpage"&gt;github&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>Why has housing become such a problem in California?</t>
+  </si>
+  <si>
+    <t>Tableau, Tableau Online</t>
+  </si>
+  <si>
+    <t>Shallow water waves near shorelines are modeled and animated in Python using water wave physics and linear wave theory. The animations show how the profile of a shoreline affects the wave characteristics. This was my final project for PHYS115: Computational Physics. My write-up uses a Juypter notebook file, available on &lt;a href="https://github.com/a-kooi/Bathymetry-and-Modeling-Shallow-Water-Waves"&gt;github&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Project details an industry analysis of the wearable technology sector as well as product conception and evaluation of six hypothetical products for FitBit. Our project highlights in depth our team's structured problem solving process.
+This was my group's final project for the CSE171A: Management of Technology I, a comprehensive requirement for Technology and Information Management undergraduate majors. I took the class to become more exposed to product management workflows in technological businesses. A pdf is available  &lt;a href="https://drive.google.com/file/d/1mAhlv-QNF8SfprtCeB5NNtIJdIr39fP4/view?usp=sharing"&gt;here&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>Bathemetry and Modeling Shallow Water Waves</t>
+  </si>
+  <si>
+    <t>Final project for STAT80B: The Art of Data Visualization. My group and I used Tableau to investigate, clean, and visualize data taken from the United States Census Bureau. Data cleaning included performing various joins and deleting unnessecary data. We discovered four interesting points: California's median age has been increasing, house prices are increasing much faster than household income, jobs are being in the created in the Bay Area much faster than houses are being built, and the proportion of citizens with a bachelor's degree or higher is increasing while the proportion of those with lower education is decreasing. I presented our results to the class and suggested some possible interpretations. A powerpoint of our final presentation is available here: &lt;a href="https://drive.google.com/file/d/19_Az8r5H9opnQbdRZ-xto2r8SyHCqfkB/view?usp=sharing"&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A laboratory write up for my Advanced Physics Laboratory, PHYS134. The report details theory, our experimental setup, and our data analysis.
-My lab partner Ronaldo Rodriguez and I gathered .csv data from a mineral oil sample affected by a magnetic field. I evaluated the data using three physics-based methods which I coded in Python. 
+My lab partner and I gathered .csv data from a mineral oil sample affected by a magnetic field. I evaluated the data using three physics-based methods which I coded in Python. A pdf of my report is available &lt;a href="https://github.com/a-kooi/Mineral-Oil-Properties-from-Nuclear-Magnetic-Resonance"&gt;here&lt;/a&gt;.
 The data and code are available on 
-&lt;a href="https://github.com/a-kooi/Mineral-Oil-Properties-from-Nuclear-Magnetic-Resonance"&gt;github&lt;/a&gt;.
+&lt;a href="https://drive.google.com/file/d/1g-b-22LBfXJZNcBAXCin5hg5YTBeRMr8/view?usp=sharing"&gt;github&lt;/a&gt;.
 </t>
   </si>
   <si>
-    <t>Industry Analysis and Product Conception for a Senior Health Care Tracker</t>
-  </si>
-  <si>
-    <t>Our Project details an industry analysis of the wearable technology sector, as well as product development and evaluation of six hypothetical products. Our project highlights in depth our team's structured problem solving process.
-This project was performed during the Management of Technology I course at UCSC, a comprehensive requirement for Technology and Information Management undergraduate seniors. I took the class to become more exposed to product management workflows.</t>
-  </si>
-  <si>
-    <t>Technology Management</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>Modeling Bathemetry and Shallow Water Waves</t>
-  </si>
-  <si>
-    <t>The motivation of this project is to model shallow water waves near shorelines. Understanding coastal physics is important to oceanic researchers, applied mathematicians, and physicists. To delve into the investigation and wave modeling, fundamental elements of water wave physics and linear wave theory will be discussed and implemented, such as the dispersion relation and phase speed of waves. Then, by animating the water waves, we will see in action how the profile of a shoreline affects the characteristics of a shallow water wave. Brief discussion about the differences with deep water waves will also be touched upon.</t>
-  </si>
-  <si>
-    <t>Python(numpy, matplotlib), Juypter notebook</t>
-  </si>
-  <si>
-    <t>Tableau</t>
-  </si>
-  <si>
-    <t>US Housing Censea</t>
-  </si>
-  <si>
-    <t>Physics, Python, LaTeX</t>
+    <t>MS Excel</t>
+  </si>
+  <si>
+    <t>Cuesta College</t>
+  </si>
+  <si>
+    <t>Determining Elementary Charge Using Millikan's Oil Drop Experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My laboratory partner and I took data on charged oil droplets placed in an electric potential to calculate the elementary charge of an electron. Our result was within 5% of the actual value. The experiment follows closely with Millikan’s Oil drop experiment, which utilizes a double plate capacitor to measure the rise and fall velocities of charged oil drops placed within it. An error analysis is included. A pdf including the data we took is available &lt;a href="https://drive.google.com/file/d/1cKQhF-fxGtuOSz_55L9hOAY7kpcYwIlC/view?usp=sharing"&gt;here&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>Python, LaTeX</t>
+  </si>
+  <si>
+    <t>I performed data cleaning and exploratory data analysis on 2014, 2016, 2017, and 2018 data taken from surveys collected by the nonprofit organization Open Sourcing Mental Illness. Data cleaning included renaming variables, joining datasets, transforming variables, and selecting data. Through the data I discovered that tech-companies have a signficantly higher proportion of employees with mental health disorders than non-tech companies. I also discovered that family history of mental illness is strongly associated with mental health disorders. Finally, I suggested a linear model for roughly predicting the proportion of emploees with mental illness. This was my final project for STAT266A: Data Visualization and Statistical Programming in R. My report and code are available: here.</t>
+  </si>
+  <si>
+    <t>R (knitr, pacman, ggplot2, dplyr, modelsummary)</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis on Mental Illness in Tech-Companies</t>
   </si>
 </sst>
 </file>
@@ -116,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -125,6 +158,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,17 +492,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="54.5" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -480,70 +517,130 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="95" customHeight="1">
+    <row r="2" spans="1:5" ht="165">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>43525</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="270">
+    <row r="3" spans="1:5" ht="135">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="3">
         <v>44182</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="116" customHeight="1">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
         <v>43971</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="116" customHeight="1">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="E5" s="3">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="183" customHeight="1">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="144" customHeight="1">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Webpage/www/PortfolioData.xlsx
+++ b/Webpage/www/PortfolioData.xlsx
@@ -101,13 +101,13 @@
     <t>Python, LaTeX</t>
   </si>
   <si>
-    <t>I performed data cleaning and exploratory data analysis on 2014, 2016, 2017, and 2018 data taken from surveys collected by the nonprofit organization Open Sourcing Mental Illness. Data cleaning included renaming variables, joining datasets, transforming variables, and selecting data. Through the data I discovered that tech-companies have a signficantly higher proportion of employees with mental health disorders than non-tech companies. I also discovered that family history of mental illness is strongly associated with mental health disorders. Finally, I suggested a linear model for roughly predicting the proportion of emploees with mental illness. This was my final project for STAT266A: Data Visualization and Statistical Programming in R. My report and code are available: here.</t>
-  </si>
-  <si>
-    <t>R (knitr, pacman, ggplot2, dplyr, modelsummary)</t>
-  </si>
-  <si>
     <t>Exploratory Data Analysis on Mental Illness in Tech-Companies</t>
+  </si>
+  <si>
+    <t>I performed data cleaning and exploratory data analysis on 2014, 2016, 2017, and 2018 data taken from surveys collected by the nonprofit organization Open Sourcing Mental Illness. Data cleaning included renaming variables, joining datasets, transforming variables, and selecting data. Through the data I discovered that tech-companies have a signficantly higher proportion of employees with mental health disorders than non-tech companies. I also discovered that family history of mental illness is strongly associated with mental health disorders. Finally, I suggested a linear model for roughly predicting the proportion of employees with mental illness. This was my final project for STAT266A: Data Visualization and Statistical Programming in R. My report and code are available: here.</t>
+  </si>
+  <si>
+    <t>R (knitr, pacman, ggplot2, dplyr, modelsummary), TeX</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -624,16 +624,16 @@
     </row>
     <row r="8" spans="1:5" ht="144" customHeight="1">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3">
         <v>44175</v>

--- a/Webpage/www/PortfolioData.xlsx
+++ b/Webpage/www/PortfolioData.xlsx
@@ -79,35 +79,35 @@
     <t>Final project for STAT80B: The Art of Data Visualization. My group and I used Tableau to investigate, clean, and visualize data taken from the United States Census Bureau. Data cleaning included performing various joins and deleting unnessecary data. We discovered four interesting points: California's median age has been increasing, house prices are increasing much faster than household income, jobs are being in the created in the Bay Area much faster than houses are being built, and the proportion of citizens with a bachelor's degree or higher is increasing while the proportion of those with lower education is decreasing. I presented our results to the class and suggested some possible interpretations. A powerpoint of our final presentation is available here: &lt;a href="https://drive.google.com/file/d/19_Az8r5H9opnQbdRZ-xto2r8SyHCqfkB/view?usp=sharing"&gt;here&lt;/a&gt;.</t>
   </si>
   <si>
+    <t>MS Excel</t>
+  </si>
+  <si>
+    <t>Cuesta College</t>
+  </si>
+  <si>
+    <t>Determining Elementary Charge Using Millikan's Oil Drop Experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My laboratory partner and I took data on charged oil droplets placed in an electric potential to calculate the elementary charge of an electron. Our result was within 5% of the actual value. The experiment follows closely with Millikan’s Oil drop experiment, which utilizes a double plate capacitor to measure the rise and fall velocities of charged oil drops placed within it. An error analysis is included. A pdf including the data we took is available &lt;a href="https://drive.google.com/file/d/1cKQhF-fxGtuOSz_55L9hOAY7kpcYwIlC/view?usp=sharing"&gt;here&lt;/a&gt;. </t>
+  </si>
+  <si>
+    <t>Python, LaTeX</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis on Mental Illness in Tech-Companies</t>
+  </si>
+  <si>
+    <t>I performed data cleaning and exploratory data analysis on 2014, 2016, 2017, and 2018 data taken from surveys collected by the nonprofit organization Open Sourcing Mental Illness. Data cleaning included renaming variables, joining datasets, transforming variables, and selecting data. Through the data I discovered that tech-companies have a signficantly higher proportion of employees with mental health disorders than non-tech companies. I also discovered that family history of mental illness is strongly associated with mental health disorders. Finally, I suggested a linear model for roughly predicting the proportion of employees with mental illness. This was my final project for STAT266A: Data Visualization and Statistical Programming in R. My report and code are available: here.</t>
+  </si>
+  <si>
+    <t>R (knitr, pacman, ggplot2, dplyr, modelsummary), TeX</t>
+  </si>
+  <si>
     <t xml:space="preserve">A laboratory write up for my Advanced Physics Laboratory, PHYS134. The report details theory, our experimental setup, and our data analysis.
-My lab partner and I gathered .csv data from a mineral oil sample affected by a magnetic field. I evaluated the data using three physics-based methods which I coded in Python. A pdf of my report is available &lt;a href="https://github.com/a-kooi/Mineral-Oil-Properties-from-Nuclear-Magnetic-Resonance"&gt;here&lt;/a&gt;.
+My lab partner and I gathered .csv data from a mineral oil sample affected by a magnetic field. I evaluated the data using three physics-based methods which I coded in Python. A pdf of my report is available &lt;a href="https://drive.google.com/file/d/1g-b-22LBfXJZNcBAXCin5hg5YTBeRMr8/view?usp=sharing"&gt;here&lt;/a&gt;.
 The data and code are available on 
-&lt;a href="https://drive.google.com/file/d/1g-b-22LBfXJZNcBAXCin5hg5YTBeRMr8/view?usp=sharing"&gt;github&lt;/a&gt;.
+&lt;a href="https://github.com/a-kooi/Mineral-Oil-Properties-from-Nuclear-Magnetic-Resonance"&gt;github&lt;/a&gt;.
 </t>
-  </si>
-  <si>
-    <t>MS Excel</t>
-  </si>
-  <si>
-    <t>Cuesta College</t>
-  </si>
-  <si>
-    <t>Determining Elementary Charge Using Millikan's Oil Drop Experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My laboratory partner and I took data on charged oil droplets placed in an electric potential to calculate the elementary charge of an electron. Our result was within 5% of the actual value. The experiment follows closely with Millikan’s Oil drop experiment, which utilizes a double plate capacitor to measure the rise and fall velocities of charged oil drops placed within it. An error analysis is included. A pdf including the data we took is available &lt;a href="https://drive.google.com/file/d/1cKQhF-fxGtuOSz_55L9hOAY7kpcYwIlC/view?usp=sharing"&gt;here&lt;/a&gt;. </t>
-  </si>
-  <si>
-    <t>Python, LaTeX</t>
-  </si>
-  <si>
-    <t>Exploratory Data Analysis on Mental Illness in Tech-Companies</t>
-  </si>
-  <si>
-    <t>I performed data cleaning and exploratory data analysis on 2014, 2016, 2017, and 2018 data taken from surveys collected by the nonprofit organization Open Sourcing Mental Illness. Data cleaning included renaming variables, joining datasets, transforming variables, and selecting data. Through the data I discovered that tech-companies have a signficantly higher proportion of employees with mental health disorders than non-tech companies. I also discovered that family history of mental illness is strongly associated with mental health disorders. Finally, I suggested a linear model for roughly predicting the proportion of employees with mental illness. This was my final project for STAT266A: Data Visualization and Statistical Programming in R. My report and code are available: here.</t>
-  </si>
-  <si>
-    <t>R (knitr, pacman, ggplot2, dplyr, modelsummary), TeX</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -523,18 +523,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="165">
+    <row r="2" spans="1:5" ht="180">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3">
         <v>43525</v>
@@ -607,16 +607,16 @@
     </row>
     <row r="7" spans="1:5" ht="120">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3">
         <v>43181</v>
@@ -624,16 +624,16 @@
     </row>
     <row r="8" spans="1:5" ht="144" customHeight="1">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3">
         <v>44175</v>

--- a/Webpage/www/PortfolioData.xlsx
+++ b/Webpage/www/PortfolioData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9820" yWindow="0" windowWidth="28580" windowHeight="18800" tabRatio="500"/>
+    <workbookView xWindow="1560" yWindow="1240" windowWidth="28580" windowHeight="18800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,14 +100,14 @@
     <t>I performed data cleaning and exploratory data analysis on 2014, 2016, 2017, and 2018 data taken from surveys collected by the nonprofit organization Open Sourcing Mental Illness. Data cleaning included renaming variables, joining datasets, transforming variables, and selecting data. Through the data I discovered that tech-companies have a signficantly higher proportion of employees with mental health disorders than non-tech companies. I also discovered that family history of mental illness is strongly associated with mental health disorders. Finally, I suggested a linear model for roughly predicting the proportion of employees with mental illness. This was my final project for STAT266A: Data Visualization and Statistical Programming in R. My report and code are available: here.</t>
   </si>
   <si>
-    <t>R (knitr, pacman, ggplot2, dplyr, modelsummary), TeX</t>
-  </si>
-  <si>
     <t xml:space="preserve">A laboratory write up for my Advanced Physics Laboratory, PHYS134. The report details theory, our experimental setup, and our data analysis.
 My lab partner and I gathered .csv data from a mineral oil sample affected by a magnetic field. I evaluated the data using three physics-based methods which I coded in Python. A pdf of my report is available &lt;a href="https://drive.google.com/file/d/1g-b-22LBfXJZNcBAXCin5hg5YTBeRMr8/view?usp=sharing"&gt;here&lt;/a&gt;.
 The data and code are available on 
 &lt;a href="https://github.com/a-kooi/Mineral-Oil-Properties-from-Nuclear-Magnetic-Resonance"&gt;github&lt;/a&gt;.
 </t>
+  </si>
+  <si>
+    <t>R Markdown, R (knitr, pacman, ggplot2, dplyr, modelsummary), TeX</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3">
         <v>44175</v>
